--- a/lab4/testowe.xlsx
+++ b/lab4/testowe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Ow\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04FF23-E200-4C83-849C-41A357E06CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2633B2B4-9383-4D62-B7E3-16C2244E04FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="3465" windowWidth="18135" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="3900" windowWidth="18135" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Nr alternatywy</t>
   </si>
@@ -65,6 +65,150 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>Alternatywa5</t>
+  </si>
+  <si>
+    <t>Alternatywa6</t>
+  </si>
+  <si>
+    <t>Alternatywa7</t>
+  </si>
+  <si>
+    <t>Alternatywa8</t>
+  </si>
+  <si>
+    <t>Alternatywa9</t>
+  </si>
+  <si>
+    <t>Alternatywa10</t>
+  </si>
+  <si>
+    <t>Alternatywa11</t>
+  </si>
+  <si>
+    <t>Alternatywa12</t>
+  </si>
+  <si>
+    <t>Alternatywa13</t>
+  </si>
+  <si>
+    <t>Alternatywa14</t>
+  </si>
+  <si>
+    <t>Alternatywa15</t>
+  </si>
+  <si>
+    <t>Alternatywa16</t>
+  </si>
+  <si>
+    <t>Alternatywa17</t>
+  </si>
+  <si>
+    <t>Alternatywa18</t>
+  </si>
+  <si>
+    <t>Alternatywa19</t>
+  </si>
+  <si>
+    <t>Alternatywa20</t>
+  </si>
+  <si>
+    <t>Alternatywa21</t>
+  </si>
+  <si>
+    <t>Alternatywa22</t>
+  </si>
+  <si>
+    <t>Alternatywa23</t>
+  </si>
+  <si>
+    <t>Alternatywa24</t>
+  </si>
+  <si>
+    <t>Alternatywa25</t>
+  </si>
+  <si>
+    <t>Alternatywa26</t>
+  </si>
+  <si>
+    <t>Alternatywa27</t>
+  </si>
+  <si>
+    <t>Alternatywa28</t>
+  </si>
+  <si>
+    <t>Alternatywa29</t>
+  </si>
+  <si>
+    <t>Alternatywa30</t>
+  </si>
+  <si>
+    <t>Alternatywa31</t>
+  </si>
+  <si>
+    <t>Alternatywa32</t>
+  </si>
+  <si>
+    <t>Alternatywa33</t>
+  </si>
+  <si>
+    <t>Alternatywa34</t>
+  </si>
+  <si>
+    <t>Alternatywa35</t>
+  </si>
+  <si>
+    <t>Alternatywa36</t>
+  </si>
+  <si>
+    <t>Alternatywa37</t>
+  </si>
+  <si>
+    <t>Alternatywa38</t>
+  </si>
+  <si>
+    <t>Alternatywa39</t>
+  </si>
+  <si>
+    <t>Alternatywa40</t>
+  </si>
+  <si>
+    <t>Alternatywa41</t>
+  </si>
+  <si>
+    <t>Alternatywa42</t>
+  </si>
+  <si>
+    <t>Alternatywa43</t>
+  </si>
+  <si>
+    <t>Alternatywa44</t>
+  </si>
+  <si>
+    <t>Alternatywa45</t>
+  </si>
+  <si>
+    <t>Alternatywa46</t>
+  </si>
+  <si>
+    <t>Alternatywa47</t>
+  </si>
+  <si>
+    <t>Alternatywa48</t>
+  </si>
+  <si>
+    <t>Alternatywa49</t>
+  </si>
+  <si>
+    <t>Alternatywa50</t>
+  </si>
+  <si>
+    <t>Alternatywa51</t>
+  </si>
+  <si>
+    <t>Alternatywa52</t>
   </si>
 </sst>
 </file>
@@ -106,8 +250,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -388,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,14 +572,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0.34</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="C2" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -444,14 +589,14 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0.316</v>
-      </c>
-      <c r="D3">
-        <v>7.7</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
+      <c r="C3" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,14 +606,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="D4">
-        <v>7.8</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
+      <c r="C4" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,13 +623,829 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5">
-        <v>7.9</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="D44" s="1">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="D49" s="1">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="D52" s="1">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1">
         <v>3</v>
       </c>
     </row>
@@ -498,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623C005E-76A6-4376-9AB3-0019657657AC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
